--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2404.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2404.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.056133943512678</v>
+        <v>1.174419283866882</v>
       </c>
       <c r="B1">
-        <v>2.209334262460967</v>
+        <v>2.250952482223511</v>
       </c>
       <c r="C1">
-        <v>8.847021912661498</v>
+        <v>4.702385902404785</v>
       </c>
       <c r="D1">
-        <v>1.853131502156714</v>
+        <v>2.631445169448853</v>
       </c>
       <c r="E1">
-        <v>0.9959731473090755</v>
+        <v>1.226363182067871</v>
       </c>
     </row>
   </sheetData>
